--- a/Ej4/Mediciones/tc_tp2_ej4_derivador.xlsx
+++ b/Ej4/Mediciones/tc_tp2_ej4_derivador.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="H(f) deriv no comp" sheetId="1" r:id="rId1"/>
@@ -5227,15 +5227,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -5269,8 +5269,12 @@
         <f t="shared" ref="E2:E13" si="0">20*LOG(C2/B2)</f>
         <v>-23.122645135824879</v>
       </c>
+      <c r="F2">
+        <f>2*PI()*A2*1000*C2/2/10^6</f>
+        <v>4.4296456415616082E-4</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5287,8 +5291,12 @@
         <f t="shared" si="0"/>
         <v>-3.9381265522792792</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="1">2*PI()*A3*1000*C3/2/10^6</f>
+        <v>4.0526545231308331E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5302,8 +5310,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>4.0840704496667303E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -5317,8 +5329,12 @@
         <f t="shared" si="0"/>
         <v>9.8936908928348188</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>5.1522119518872603E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -5335,8 +5351,12 @@
         <f t="shared" si="0"/>
         <v>16.275832133055548</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.62203534541077909</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -5353,8 +5373,12 @@
         <f t="shared" si="0"/>
         <v>21.855081064737973</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.81681408993334625</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
@@ -5371,8 +5395,12 @@
         <f t="shared" si="0"/>
         <v>29.235971150502188</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2.8431413514987636</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
@@ -5389,8 +5417,12 @@
         <f t="shared" si="0"/>
         <v>33.979400086720382</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>3.9144244463728821</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>100</v>
       </c>
@@ -5407,8 +5439,12 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>5.6234508499257299</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>120</v>
       </c>
@@ -5425,8 +5461,12 @@
         <f t="shared" si="0"/>
         <v>41.300671899726652</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>3.4155395329828231</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>200</v>
       </c>
@@ -5443,8 +5483,12 @@
         <f t="shared" si="0"/>
         <v>38.125432915562655</v>
       </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>4.3039819354180171</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>500</v>
       </c>
@@ -5460,6 +5504,10 @@
       <c r="E13">
         <f t="shared" si="0"/>
         <v>26.581174385284495</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>4.5238934211693014</v>
       </c>
     </row>
   </sheetData>
@@ -5475,8 +5523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5509,7 +5557,8 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="D2">
-        <v>96</v>
+        <f>-96</f>
+        <v>-96</v>
       </c>
       <c r="E2">
         <v>14.8</v>
@@ -5527,7 +5576,7 @@
         <v>5.92</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="E3">
         <v>13.5</v>
@@ -5546,7 +5595,7 @@
         <v>9.67</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="E4">
         <v>11.2</v>
@@ -5565,7 +5614,7 @@
         <v>13.3</v>
       </c>
       <c r="D5">
-        <v>89</v>
+        <v>-89</v>
       </c>
       <c r="E5">
         <v>6.17</v>
@@ -5583,7 +5632,7 @@
         <v>14.2</v>
       </c>
       <c r="D6">
-        <v>89</v>
+        <v>-89</v>
       </c>
       <c r="E6">
         <v>3.31</v>
@@ -5601,7 +5650,7 @@
         <v>14.5</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="E7">
         <v>1.69</v>
@@ -5619,7 +5668,7 @@
         <v>14.6</v>
       </c>
       <c r="D8">
-        <v>89</v>
+        <v>-89</v>
       </c>
       <c r="E8">
         <v>0.63</v>
@@ -5638,7 +5687,7 @@
         <v>9.84</v>
       </c>
       <c r="D9">
-        <v>88</v>
+        <v>-88</v>
       </c>
       <c r="E9">
         <v>0.27600000000000002</v>
@@ -5657,7 +5706,7 @@
         <v>3.97</v>
       </c>
       <c r="D10">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="E10">
         <v>6.5799999999999997E-2</v>
@@ -5675,7 +5724,7 @@
         <v>3.97</v>
       </c>
       <c r="D11">
-        <v>91</v>
+        <v>-91</v>
       </c>
       <c r="E11">
         <v>4.2999999999999997E-2</v>
